--- a/cobfileuty.xlsx
+++ b/cobfileuty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroshi/svnWC/cobfileuty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74344282-8680-2542-9BB1-D6A9860997FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBB57DB-DC03-0645-968E-EF3475972BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{F534B4CC-4199-0F49-AD2E-E9AC4DF6D31C}"/>
   </bookViews>
@@ -2013,7 +2013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2134,9 +2134,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2178,12 +2175,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3885,11 +3876,11 @@
       <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
@@ -4011,8 +4002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B883C12-05CA-B042-A3CA-1E7E62FA15B6}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" outlineLevelCol="1"/>
@@ -4023,16 +4014,15 @@
     <col min="4" max="4" width="33.7109375" style="16" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="44.28515625" style="16" customWidth="1" outlineLevel="1"/>
     <col min="6" max="7" width="10.7109375" style="16"/>
-    <col min="8" max="9" width="16.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="55"/>
-    <col min="11" max="16384" width="10.7109375" style="16"/>
+    <col min="8" max="9" width="16.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="16" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4040,13 +4030,13 @@
       <c r="G2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="16" t="s">
         <v>300</v>
       </c>
       <c r="K2" s="16" t="s">
@@ -4076,22 +4066,22 @@
       <c r="G3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="54" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4114,13 +4104,13 @@
       <c r="G4" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="16" t="s">
         <v>298</v>
       </c>
       <c r="K4" s="16" t="s">
@@ -4155,7 +4145,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="18"/>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="58" t="s">
         <v>312</v>
       </c>
       <c r="C7" s="18"/>
@@ -4192,13 +4182,13 @@
       <c r="G9" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="16" t="s">
         <v>298</v>
       </c>
       <c r="K9" s="16" t="s">
@@ -4233,7 +4223,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="19"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="57" t="s">
         <v>312</v>
       </c>
       <c r="C12" s="19"/>
@@ -4259,24 +4249,24 @@
       <c r="A14" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>164</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="58"/>
+      <c r="E14" s="55"/>
       <c r="G14" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="J14" s="56" t="s">
+      <c r="J14" s="54" t="s">
         <v>303</v>
       </c>
       <c r="K14" s="16" t="s">
@@ -4291,18 +4281,18 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="18"/>
-      <c r="B15" s="42"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="17" t="s">
         <v>301</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="58"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="18"/>
-      <c r="B16" s="42"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="18"/>
       <c r="D16" s="24" t="s">
         <v>229</v>
@@ -4313,7 +4303,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="18"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>241</v>
       </c>
       <c r="C17" s="18"/>
@@ -4326,7 +4316,7 @@
     </row>
     <row r="18" spans="1:13" ht="42">
       <c r="A18" s="18"/>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>247</v>
       </c>
       <c r="C18" s="18"/>
@@ -4339,7 +4329,7 @@
     </row>
     <row r="19" spans="1:13" ht="42">
       <c r="A19" s="18"/>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="50" t="s">
         <v>248</v>
       </c>
       <c r="C19" s="18"/>
@@ -4350,7 +4340,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="18"/>
-      <c r="B20" s="52"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="18"/>
       <c r="D20" s="24" t="s">
         <v>234</v>
@@ -4361,7 +4351,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="18"/>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="53" t="s">
         <v>314</v>
       </c>
       <c r="C21" s="19"/>
@@ -4374,88 +4364,88 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="18"/>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="58"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="18"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="45" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="E23" s="58"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="18"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="46" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="E24" s="58"/>
+      <c r="E24" s="55"/>
     </row>
     <row r="25" spans="1:13" ht="34">
       <c r="A25" s="18"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="47" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="E25" s="58"/>
+      <c r="E25" s="55"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="18"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="48" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="E26" s="58"/>
+      <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="18"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="49" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="E27" s="58"/>
+      <c r="E27" s="55"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="18"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="50" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="58"/>
+      <c r="E28" s="55"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="18"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="45" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="E29" s="58"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="19"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="48" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="E30" s="59"/>
+      <c r="E30" s="56"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="20"/>
@@ -4474,24 +4464,24 @@
       <c r="A32" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>225</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>164</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="58"/>
+      <c r="E32" s="55"/>
       <c r="G32" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H32" s="55" t="s">
+      <c r="H32" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="I32" s="55" t="s">
+      <c r="I32" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="J32" s="55" t="s">
+      <c r="J32" s="16" t="s">
         <v>298</v>
       </c>
       <c r="K32" s="16" t="s">
@@ -4506,18 +4496,18 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="18"/>
-      <c r="B33" s="42"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E33" s="58"/>
+      <c r="E33" s="55"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="18"/>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="41" t="s">
         <v>242</v>
       </c>
       <c r="C34" s="18"/>
@@ -4530,7 +4520,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="18"/>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="41" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="18"/>
@@ -4543,7 +4533,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="18"/>
-      <c r="B36" s="42"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="18"/>
       <c r="D36" s="27" t="s">
         <v>233</v>
@@ -4554,7 +4544,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="18"/>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="41" t="s">
         <v>291</v>
       </c>
       <c r="C37" s="18"/>
@@ -4565,7 +4555,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="18"/>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="53" t="s">
         <v>292</v>
       </c>
       <c r="C38" s="18"/>
@@ -4578,7 +4568,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="18"/>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="41" t="s">
         <v>293</v>
       </c>
       <c r="C39" s="19"/>
@@ -4591,90 +4581,90 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="18"/>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="E40" s="58"/>
+      <c r="E40" s="55"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="18"/>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="45" t="s">
+      <c r="C41" s="41"/>
+      <c r="D41" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="E41" s="58"/>
+      <c r="E41" s="55"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="18"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="46" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="E42" s="58"/>
+      <c r="E42" s="55"/>
     </row>
     <row r="43" spans="1:5" ht="34">
       <c r="A43" s="18"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="47" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="E43" s="58"/>
+      <c r="E43" s="55"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="18"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="48" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="E44" s="58"/>
+      <c r="E44" s="55"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="18"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="49" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="E45" s="58"/>
+      <c r="E45" s="55"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="18"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="50" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="E46" s="58"/>
+      <c r="E46" s="55"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="18"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="45" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="E47" s="58"/>
+      <c r="E47" s="55"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="19"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="48" t="s">
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="E48" s="59"/>
+      <c r="E48" s="56"/>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" s="21"/>

--- a/cobfileuty.xlsx
+++ b/cobfileuty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroshi/svnWC/cobfileuty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBB57DB-DC03-0645-968E-EF3475972BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10205358-A7E6-6B4F-9C33-0AE7CE6C0DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{F534B4CC-4199-0F49-AD2E-E9AC4DF6D31C}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="memo" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ファイル相関、テストスクリプト'!$A$3:$N$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ファイル相関、テストスクリプト'!$A$3:$N$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">関数一覧!$C$1:$F$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="322">
   <si>
     <t xml:space="preserve"> ファイルをクローズする</t>
   </si>
@@ -1002,16 +1002,6 @@
       <t xml:space="preserve">
 &amp;openToutput ($Ot=recfm='T')</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&amp;editrec (--edit=eit)
-&amp;fmtprint (--edit=fmtpr)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&amp;cobfile::writeBrec ($Ot-&gt;recfm='F|V')
-&amp;cobfile::writeTrec ($Ot=recfm='T')</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1745,6 +1735,42 @@
     <rPh sb="6" eb="8">
       <t xml:space="preserve">シュツリョク </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;record_exit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;writeBrec ($Ot-&gt;recfm='F|V')
+&amp;writeTrec ($Ot=recfm='T')</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>package hexedit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;hexedit::editrec (--edit=edit)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;hexedit::editrec (--edit=edit)
+&amp;hexedit::fmtprint (--edit=fmtpr)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;hexedit::fmtprint (--edit=fmtpr)</t>
+  </si>
+  <si>
+    <t>レコード編集</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ヘンシュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>($Infile, $Otfile);</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1856,7 +1882,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1884,6 +1910,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2013,7 +2045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2098,9 +2130,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2189,6 +2218,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3390,607 +3476,607 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="E1" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" thickTop="1">
+      <c r="A2" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="B2" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="29" t="s">
+      <c r="B3" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:11" ht="21" thickBot="1">
+      <c r="A10" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:11" ht="21" thickTop="1">
+      <c r="A11" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:11" ht="21" thickBot="1">
+      <c r="A13" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="1:11" ht="21" thickTop="1">
+      <c r="A14" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+    </row>
+    <row r="17" spans="1:11" ht="21" thickBot="1">
+      <c r="A17" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" ht="21" thickTop="1">
+      <c r="A18" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-    </row>
-    <row r="2" spans="1:11" ht="21" thickTop="1">
-      <c r="A2" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" spans="1:11" ht="21" thickBot="1">
-      <c r="A10" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-    </row>
-    <row r="11" spans="1:11" ht="21" thickTop="1">
-      <c r="A11" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-    </row>
-    <row r="13" spans="1:11" ht="21" thickBot="1">
-      <c r="A13" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="36" t="s">
+      <c r="D19" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-    </row>
-    <row r="14" spans="1:11" ht="21" thickTop="1">
-      <c r="A14" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="1:11" ht="21" thickBot="1">
-      <c r="A17" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-    </row>
-    <row r="18" spans="1:11" ht="21" thickTop="1">
-      <c r="A18" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="E19" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4000,10 +4086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B883C12-05CA-B042-A3CA-1E7E62FA15B6}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" outlineLevelCol="1"/>
@@ -4023,30 +4109,30 @@
         <v>171</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21">
       <c r="G2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="54" t="s">
-        <v>304</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>299</v>
+      <c r="H2" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>297</v>
       </c>
       <c r="J2" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>302</v>
-      </c>
       <c r="L2" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="42">
@@ -4066,23 +4152,23 @@
       <c r="G3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="I3" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="L3" s="54" t="s">
-        <v>310</v>
-      </c>
-      <c r="M3" s="54" t="s">
-        <v>310</v>
+      <c r="J3" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21">
@@ -4102,25 +4188,25 @@
         <v>216</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>303</v>
+        <v>295</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>301</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4135,7 +4221,7 @@
     <row r="6" spans="1:13">
       <c r="A6" s="18"/>
       <c r="B6" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="25"/>
@@ -4145,8 +4231,8 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="18"/>
-      <c r="B7" s="58" t="s">
-        <v>312</v>
+      <c r="B7" s="57" t="s">
+        <v>310</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="25"/>
@@ -4180,25 +4266,25 @@
         <v>51</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>303</v>
+        <v>296</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>301</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4213,7 +4299,7 @@
     <row r="11" spans="1:13">
       <c r="A11" s="18"/>
       <c r="B11" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -4223,8 +4309,8 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="19"/>
-      <c r="B12" s="57" t="s">
-        <v>312</v>
+      <c r="B12" s="56" t="s">
+        <v>310</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -4249,468 +4335,485 @@
       <c r="A14" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>164</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="55"/>
+      <c r="E14" s="54"/>
       <c r="G14" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>303</v>
+        <v>296</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>301</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="18"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="55"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="18"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="24" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="74" t="s">
         <v>229</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:5">
       <c r="A17" s="18"/>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="26" t="s">
+      <c r="C17" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="74" t="s">
         <v>231</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="42">
+    <row r="18" spans="1:5">
       <c r="A18" s="18"/>
-      <c r="B18" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="28" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="18"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="42">
+      <c r="A20" s="18"/>
+      <c r="B20" s="49" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="42">
-      <c r="A19" s="18"/>
-      <c r="B19" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="28" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="18"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="24" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="74" t="s">
         <v>234</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:5" ht="42">
       <c r="A21" s="18"/>
-      <c r="B21" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="26" t="s">
+      <c r="B21" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="74" t="s">
         <v>235</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:5">
       <c r="A22" s="18"/>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="54"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="18"/>
+      <c r="B23" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="54"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="18"/>
+      <c r="B24" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="54"/>
+    </row>
+    <row r="25" spans="1:5" ht="34">
+      <c r="A25" s="18"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="54"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="18"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="54"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="18"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" s="54"/>
+    </row>
+    <row r="28" spans="1:5" ht="34">
+      <c r="A28" s="18"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="34">
+      <c r="A29" s="18"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="75" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="55"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="18"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="44" t="s">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="18"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="54"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="19"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" s="55"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="54"/>
+      <c r="G33" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="18"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="18"/>
+      <c r="B35" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="24" t="s">
         <v>229</v>
-      </c>
-      <c r="E23" s="55"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="18"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="55"/>
-    </row>
-    <row r="25" spans="1:13" ht="34">
-      <c r="A25" s="18"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="55"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="18"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" s="55"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="18"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="E27" s="55"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="18"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" s="55"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="18"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="E29" s="55"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="19"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="E30" s="56"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="55"/>
-      <c r="G32" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="M32" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="55"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="18"/>
-      <c r="B34" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="18"/>
-      <c r="B35" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="26" t="s">
-        <v>231</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:13">
       <c r="A36" s="18"/>
-      <c r="B36" s="41"/>
+      <c r="B36" s="40" t="s">
+        <v>240</v>
+      </c>
       <c r="C36" s="18"/>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="18"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E37" s="23" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="18"/>
-      <c r="B37" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="23" t="s">
+    <row r="38" spans="1:13">
+      <c r="A38" s="18"/>
+      <c r="B38" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="23" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="18"/>
-      <c r="B38" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="24" t="s">
+    <row r="39" spans="1:13">
+      <c r="A39" s="18"/>
+      <c r="B39" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="18"/>
-      <c r="B39" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="26" t="s">
-        <v>235</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:13">
       <c r="A40" s="18"/>
-      <c r="B40" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="C40" s="42" t="s">
+      <c r="B40" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="18"/>
+      <c r="B41" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D41" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="E40" s="55"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="18"/>
-      <c r="B41" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="44" t="s">
+      <c r="E41" s="54"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="18"/>
+      <c r="B42" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="E41" s="55"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="18"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="45" t="s">
+      <c r="E42" s="54"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="18"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="E42" s="55"/>
-    </row>
-    <row r="43" spans="1:5" ht="34">
-      <c r="A43" s="18"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="46" t="s">
+      <c r="E43" s="54"/>
+    </row>
+    <row r="44" spans="1:13" ht="34">
+      <c r="A44" s="18"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="E43" s="55"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="18"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="47" t="s">
+      <c r="E44" s="54"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="18"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="E44" s="55"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="18"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="48" t="s">
+      <c r="E45" s="54"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="18"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="E45" s="55"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="18"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="E46" s="55"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="54"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="18"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="44" t="s">
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="E47" s="54"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="18"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="E47" s="55"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="19"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="47" t="s">
+      <c r="E48" s="54"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="19"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="E48" s="56"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="B50" s="21"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="B52" s="21"/>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="E49" s="55"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="21"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="B53" s="21"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:5">
       <c r="B54" s="21"/>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="16" t="s">
+    <row r="55" spans="1:5">
+      <c r="B55" s="21"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="16" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="16" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="16" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="16" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="16" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B60" s="16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="16" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B61" s="16" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N48" xr:uid="{1B883C12-05CA-B042-A3CA-1E7E62FA15B6}"/>
+  <autoFilter ref="A3:N49" xr:uid="{1B883C12-05CA-B042-A3CA-1E7E62FA15B6}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cobfileuty.xlsx
+++ b/cobfileuty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroshi/svnWC/cobfileuty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10205358-A7E6-6B4F-9C33-0AE7CE6C0DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A12DDC-6EF1-9F44-B94B-24D3317613A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{F534B4CC-4199-0F49-AD2E-E9AC4DF6D31C}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="memo" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ファイル相関、テストスクリプト'!$A$3:$N$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ファイル相関、テストスクリプト'!$A$3:$N$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">関数一覧!$C$1:$F$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="325">
   <si>
     <t xml:space="preserve"> ファイルをクローズする</t>
   </si>
@@ -981,27 +981,6 @@
   <si>
     <t>&amp;openBoutput ($Ot-&gt;recfm='F|V')
 &amp;openToutput ($Ot=recfm='T')</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&amp;openBoutput ($Ot-&gt;recfm='F|V')</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-&amp;openToutput ($Ot=recfm='T')</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1755,14 +1734,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&amp;hexedit::editrec (--edit=edit)
-&amp;hexedit::fmtprint (--edit=fmtpr)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&amp;hexedit::fmtprint (--edit=fmtpr)</t>
-  </si>
-  <si>
     <t>レコード編集</t>
     <rPh sb="4" eb="6">
       <t xml:space="preserve">ヘンシュウ </t>
@@ -1770,7 +1741,53 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>($Infile, $Otfile);</t>
+    <t xml:space="preserve"> (--edit=edit)
+&amp;hexedit::editrec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ref_hash_array = \%hexedit::hash_for_array_fmts;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ref_hash_hash  = \%hexedit::hash_for_hash_fmts;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;openBoutput ($Ot-&gt;recfm='F|V')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&amp;openToutput ($Ot=recfm='T')</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;cobfile::hexedit($Infile, $Otfile, $ref_hash_array, $ref_hash_hash);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;record_exit($refin, $refot, $hexstr, $retstr, $ref_hash_array, $ref_hash_hash)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(--edit=fmtpr)&amp;fmtprint($refin, $refot, $hexstr, $retstr, $ref_hash_array)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1778,7 +1795,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1833,27 +1850,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFD4D4D4"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -1876,6 +1874,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2045,7 +2051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2112,43 +2118,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
@@ -2169,30 +2157,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2220,62 +2184,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3476,607 +3440,607 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="D1" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" thickTop="1">
+      <c r="A2" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="28" t="s">
+      <c r="B2" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" ht="21" thickBot="1">
+      <c r="A10" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" ht="21" thickTop="1">
+      <c r="A11" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" ht="21" thickBot="1">
+      <c r="A13" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:11" ht="21" thickTop="1">
+      <c r="A14" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:11" ht="21" thickBot="1">
+      <c r="A17" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" ht="21" thickTop="1">
+      <c r="A18" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-    </row>
-    <row r="2" spans="1:11" ht="21" thickTop="1">
-      <c r="A2" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:11" ht="21" thickBot="1">
-      <c r="A10" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:11" ht="21" thickTop="1">
-      <c r="A11" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" ht="21" thickBot="1">
-      <c r="A13" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="35" t="s">
+      <c r="D19" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:11" ht="21" thickTop="1">
-      <c r="A14" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" ht="21" thickBot="1">
-      <c r="A17" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:11" ht="21" thickTop="1">
-      <c r="A18" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="E19" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4086,18 +4050,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B883C12-05CA-B042-A3CA-1E7E62FA15B6}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="16" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="23.85546875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="39" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="44.28515625" style="16" customWidth="1" outlineLevel="1"/>
     <col min="6" max="7" width="10.7109375" style="16"/>
     <col min="8" max="9" width="16.28515625" style="16" bestFit="1" customWidth="1"/>
@@ -4109,30 +4073,30 @@
         <v>171</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21">
       <c r="G2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="I2" s="53" t="s">
+      <c r="H2" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>298</v>
-      </c>
       <c r="K2" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L2" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>306</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="42">
@@ -4140,10 +4104,10 @@
       <c r="B3" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="44" t="s">
         <v>221</v>
       </c>
       <c r="E3" s="20" t="s">
@@ -4152,23 +4116,23 @@
       <c r="G3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="K3" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="L3" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="M3" s="53" t="s">
-        <v>308</v>
+      <c r="K3" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21">
@@ -4178,74 +4142,74 @@
       <c r="B4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="8" t="s">
         <v>216</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H4" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="I4" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>296</v>
-      </c>
       <c r="K4" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>296</v>
-      </c>
       <c r="M4" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="18"/>
       <c r="B6" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="18"/>
-      <c r="B7" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="23" t="s">
+      <c r="B7" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="8" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4256,77 +4220,77 @@
       <c r="B9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>301</v>
+        <v>295</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>300</v>
       </c>
       <c r="I9" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="J9" s="16" t="s">
-        <v>296</v>
-      </c>
       <c r="K9" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="18"/>
       <c r="B11" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="19"/>
-      <c r="B12" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="23" t="s">
+      <c r="B12" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="21">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="20" t="s">
         <v>222</v>
       </c>
@@ -4335,102 +4299,98 @@
       <c r="A14" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="54"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="40"/>
       <c r="G14" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>301</v>
+        <v>295</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>300</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="21">
       <c r="A15" s="18"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="73" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15" s="58" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="54"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:13" ht="21">
       <c r="A16" s="18"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="74" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="47" t="s">
         <v>229</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="21">
       <c r="A17" s="18"/>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="59" t="s">
-        <v>316</v>
-      </c>
-      <c r="D17" s="74" t="s">
+      <c r="C17" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="47" t="s">
         <v>231</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="21">
       <c r="A18" s="18"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="74" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="18"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="74" t="s">
-        <v>319</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>226</v>
-      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="42">
       <c r="A20" s="18"/>
-      <c r="B20" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="74" t="s">
+      <c r="B20" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="47" t="s">
         <v>234</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -4439,381 +4399,380 @@
     </row>
     <row r="21" spans="1:5" ht="42">
       <c r="A21" s="18"/>
-      <c r="B21" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="74" t="s">
+      <c r="B21" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="47" t="s">
         <v>235</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="63">
       <c r="A22" s="18"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="65" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="54"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:5" ht="21">
       <c r="A23" s="18"/>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:5" ht="63">
+      <c r="A24" s="18"/>
+      <c r="B24" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="C23" s="76" t="s">
-        <v>321</v>
-      </c>
-      <c r="D23" s="60" t="s">
+      <c r="C24" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" spans="1:5" ht="63">
+      <c r="A25" s="18"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:5" ht="21">
+      <c r="A26" s="18"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:5" ht="21">
+      <c r="A27" s="18"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" ht="42">
+      <c r="A28" s="18"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="42">
+      <c r="A29" s="18"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="62" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="42">
+      <c r="A30" s="18"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21">
+      <c r="A31" s="18"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" spans="1:5" ht="21">
+      <c r="A32" s="19"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="41"/>
+    </row>
+    <row r="33" spans="1:13" ht="21">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="21">
+      <c r="A34" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="40"/>
+      <c r="G34" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="21">
+      <c r="A35" s="18"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="40"/>
+    </row>
+    <row r="36" spans="1:13" ht="21">
+      <c r="A36" s="18"/>
+      <c r="B36" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="49" t="s">
         <v>229</v>
-      </c>
-      <c r="E23" s="54"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="18"/>
-      <c r="B24" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="54"/>
-    </row>
-    <row r="25" spans="1:5" ht="34">
-      <c r="A25" s="18"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="54"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="18"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" s="54"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="18"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="E27" s="54"/>
-    </row>
-    <row r="28" spans="1:5" ht="34">
-      <c r="A28" s="18"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="70" t="s">
-        <v>314</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="34">
-      <c r="A29" s="18"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="18"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="E30" s="54"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="19"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" s="55"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="54"/>
-      <c r="G33" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="M33" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="18"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="54"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="18"/>
-      <c r="B35" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="18"/>
-      <c r="B36" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="26" t="s">
-        <v>231</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" ht="21">
       <c r="A37" s="18"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="27" t="s">
+      <c r="B37" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="21">
+      <c r="A38" s="18"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E38" s="8" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="18"/>
-      <c r="B38" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="23" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="18"/>
-      <c r="B39" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="24" t="s">
+      <c r="B39" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="21">
+      <c r="A40" s="18"/>
+      <c r="B40" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C40" s="45"/>
+      <c r="D40" s="49" t="s">
         <v>234</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="18"/>
-      <c r="B40" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="26" t="s">
-        <v>235</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" ht="21">
       <c r="A41" s="18"/>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="21">
+      <c r="A42" s="18"/>
+      <c r="B42" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="40"/>
+    </row>
+    <row r="43" spans="1:13" ht="21">
+      <c r="A43" s="18"/>
+      <c r="B43" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="54"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="18"/>
-      <c r="B42" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="43" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="E42" s="54"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="18"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="44" t="s">
+      <c r="E43" s="40"/>
+    </row>
+    <row r="44" spans="1:13" ht="21">
+      <c r="A44" s="18"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="E43" s="54"/>
-    </row>
-    <row r="44" spans="1:13" ht="34">
-      <c r="A44" s="18"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="E44" s="54"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="E44" s="40"/>
+    </row>
+    <row r="45" spans="1:13" ht="42">
       <c r="A45" s="18"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="46" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="E45" s="40"/>
+    </row>
+    <row r="46" spans="1:13" ht="21">
+      <c r="A46" s="18"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="E45" s="54"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="18"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="47" t="s">
+      <c r="E46" s="40"/>
+    </row>
+    <row r="47" spans="1:13" ht="21">
+      <c r="A47" s="18"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="E46" s="54"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="18"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="E47" s="54"/>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="E47" s="40"/>
+    </row>
+    <row r="48" spans="1:13" ht="21">
       <c r="A48" s="18"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="43" t="s">
+      <c r="B48" s="34"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="E48" s="40"/>
+    </row>
+    <row r="49" spans="1:5" ht="21">
+      <c r="A49" s="18"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="E48" s="54"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="19"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="46" t="s">
+      <c r="E49" s="40"/>
+    </row>
+    <row r="50" spans="1:5" ht="21">
+      <c r="A50" s="19"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="E49" s="55"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="B51" s="21"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="B53" s="21"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" s="21"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="21"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="16" t="s">
-        <v>173</v>
-      </c>
+      <c r="E50" s="41"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B62" s="16" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N49" xr:uid="{1B883C12-05CA-B042-A3CA-1E7E62FA15B6}"/>
+  <autoFilter ref="A3:N50" xr:uid="{1B883C12-05CA-B042-A3CA-1E7E62FA15B6}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4866,7 +4825,7 @@
       <c r="I2" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4874,16 +4833,16 @@
       <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="F3" t="s">
         <v>163</v>
       </c>
       <c r="G3" t="s">
         <v>142</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4900,7 +4859,7 @@
       <c r="I4" t="s">
         <v>207</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4914,7 +4873,7 @@
       <c r="G5" t="s">
         <v>142</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="21" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4928,7 +4887,7 @@
       <c r="G6" t="s">
         <v>152</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>211</v>
       </c>
     </row>

--- a/cobfileuty.xlsx
+++ b/cobfileuty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroshi/svnWC/cobfileuty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A12DDC-6EF1-9F44-B94B-24D3317613A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2175DB5C-5D4D-4F4F-BF1D-C6F361F5A5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{F534B4CC-4199-0F49-AD2E-E9AC4DF6D31C}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="memo" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ファイル相関、テストスクリプト'!$A$3:$N$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ファイル相関、テストスクリプト'!$A$3:$G$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">関数一覧!$C$1:$F$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="295">
   <si>
     <t xml:space="preserve"> ファイルをクローズする</t>
   </si>
@@ -906,22 +906,6 @@
     <t>readTrec</t>
   </si>
   <si>
-    <t>hexfmtM.pl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォーマットダンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hexfmt_sub.pl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&amp;cobfile::hexedit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&amp;hexedit::init_pre</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -935,9 +919,6 @@
     <t>&amp;readBrec</t>
   </si>
   <si>
-    <t>&amp;hexedit::record_exit</t>
-  </si>
-  <si>
     <t>&amp;hexedit::term_pre</t>
   </si>
   <si>
@@ -948,31 +929,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&amp;fmtprint</t>
-  </si>
-  <si>
-    <t>&amp;cobfile::writeTrec</t>
-  </si>
-  <si>
     <t>require,MAIN</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>に固定</t>
-    <rPh sb="1" eb="3">
-      <t xml:space="preserve">コテイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出力は</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">シュツリョク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出力は、'T','utf8'</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">シュツリョク </t>
     </rPh>
@@ -1580,102 +1541,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hexM.plの</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>---edit=fmtprと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動作は同じ。</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ドウサ </t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">オナジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>require先を</t>
-    <rPh sb="7" eb="8">
-      <t xml:space="preserve">サキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>簡素化するため作成</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">カンソカ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">サクセイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pltest.ml</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hexput</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sjisedit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>hexedit_sub.pl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hexedit_edit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>oo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hexdpput</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hexdp-&gt;hexput
-=? bincmp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hexeditM
-=? bincmp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hexput-&gt;hexdp
-=? diff</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hexedit_iferr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hexfmt_iferr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hexeditM.pl
-=? diff</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1717,10 +1583,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&amp;record_exit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&amp;writeBrec ($Ot-&gt;recfm='F|V')
 &amp;writeTrec ($Ot=recfm='T')</t>
     <phoneticPr fontId="1"/>
@@ -1741,53 +1603,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>$ref_hash_array = \%hexedit::hash_for_array_fmts;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$ref_hash_hash  = \%hexedit::hash_for_hash_fmts;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;cobfile::hexedit($Infile, $Otfile, $ref_hash_array, $ref_hash_hash);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;record_exit($refin, $refot, $hexstr, $retstr, $ref_hash_array, $ref_hash_hash)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve"> (--edit=edit)
-&amp;hexedit::editrec</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$ref_hash_array = \%hexedit::hash_for_array_fmts;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$ref_hash_hash  = \%hexedit::hash_for_hash_fmts;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;openBoutput ($Ot-&gt;recfm='F|V')</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&amp;openToutput ($Ot=recfm='T')</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&amp;cobfile::hexedit($Infile, $Otfile, $ref_hash_array, $ref_hash_hash);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&amp;record_exit($refin, $refot, $hexstr, $retstr, $ref_hash_array, $ref_hash_hash)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(--edit=fmtpr)&amp;fmtprint($refin, $refot, $hexstr, $retstr, $ref_hash_array)</t>
+&amp;hexedit::editrec($refin, $refot, $hexstr, $retstr, $ref_hash_hash);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(--edit=fmtpr)
+&amp;fmtprint($refin, $refot, $hexstr, $retstr, $ref_hash_array)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1795,7 +1633,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1874,14 +1712,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2051,7 +1881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2196,9 +2026,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2211,12 +2038,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2224,18 +2045,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3441,26 +3250,26 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F1" s="31"/>
       <c r="G1" s="22" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
@@ -3468,7 +3277,7 @@
     </row>
     <row r="2" spans="1:11" ht="21" thickTop="1">
       <c r="A2" s="24" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>186</v>
@@ -3480,11 +3289,11 @@
         <v>182</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="27" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>181</v>
@@ -3495,7 +3304,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="26" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>186</v>
@@ -3507,24 +3316,24 @@
         <v>182</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="27" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="26" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>186</v>
@@ -3536,24 +3345,24 @@
         <v>182</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="27" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="26" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>186</v>
@@ -3565,14 +3374,14 @@
         <v>182</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="27" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -3580,7 +3389,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="26" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>186</v>
@@ -3596,10 +3405,10 @@
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="27" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
@@ -3607,7 +3416,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="26" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>186</v>
@@ -3623,10 +3432,10 @@
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="27" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
@@ -3634,7 +3443,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="26" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>186</v>
@@ -3650,10 +3459,10 @@
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="27" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
@@ -3661,7 +3470,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="26" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>186</v>
@@ -3684,7 +3493,7 @@
     </row>
     <row r="10" spans="1:11" ht="21" thickBot="1">
       <c r="A10" s="28" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>186</v>
@@ -3707,7 +3516,7 @@
     </row>
     <row r="11" spans="1:11" ht="21" thickTop="1">
       <c r="A11" s="25" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>190</v>
@@ -3730,7 +3539,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="27" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>190</v>
@@ -3753,7 +3562,7 @@
     </row>
     <row r="13" spans="1:11" ht="21" thickBot="1">
       <c r="A13" s="29" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>190</v>
@@ -3776,13 +3585,13 @@
     </row>
     <row r="14" spans="1:11" ht="21" thickTop="1">
       <c r="A14" s="25" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>183</v>
@@ -3799,13 +3608,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="27" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>184</v>
@@ -3822,13 +3631,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="27" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>190</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>194</v>
@@ -3845,13 +3654,13 @@
     </row>
     <row r="17" spans="1:11" ht="21" thickBot="1">
       <c r="A17" s="29" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>190</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>195</v>
@@ -3897,13 +3706,13 @@
         <v>190</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>191</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
@@ -4050,56 +3859,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B883C12-05CA-B042-A3CA-1E7E62FA15B6}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" style="39" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="44.28515625" style="16" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="10.7109375" style="16"/>
-    <col min="8" max="9" width="16.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="16"/>
+    <col min="5" max="5" width="63" style="16" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="16384" width="10.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="21">
-      <c r="G2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="42">
+    </row>
+    <row r="3" spans="1:5" ht="21">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>168</v>
@@ -4113,67 +3894,25 @@
       <c r="E3" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="21">
+    </row>
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="17" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="45"/>
@@ -4182,10 +3921,10 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:5">
       <c r="A6" s="18"/>
       <c r="B6" s="18" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -4193,10 +3932,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:5">
       <c r="A7" s="18"/>
       <c r="B7" s="43" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
@@ -4204,7 +3943,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:5">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="46"/>
@@ -4213,45 +3952,24 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="21">
+    <row r="9" spans="1:5" ht="21">
       <c r="A9" s="17" t="s">
         <v>166</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="45"/>
@@ -4260,10 +3978,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:5">
       <c r="A11" s="18"/>
       <c r="B11" s="18" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
@@ -4271,10 +3989,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:5">
       <c r="A12" s="19"/>
       <c r="B12" s="42" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -4282,20 +4000,20 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="21">
+    <row r="13" spans="1:5" ht="21">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>168</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="20" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="21">
+    <row r="14" spans="1:5" ht="21">
       <c r="A14" s="17" t="s">
         <v>167</v>
       </c>
@@ -4307,472 +4025,225 @@
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="40"/>
-      <c r="G14" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="21">
+    </row>
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="18"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="50" t="s">
-        <v>298</v>
+      <c r="C15" s="49" t="s">
+        <v>279</v>
       </c>
       <c r="D15" s="47" t="s">
         <v>169</v>
       </c>
       <c r="E15" s="40"/>
     </row>
-    <row r="16" spans="1:13" ht="21">
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="18"/>
       <c r="B16" s="34"/>
-      <c r="C16" s="51"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="47" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21">
       <c r="A17" s="18"/>
       <c r="B17" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>315</v>
+        <v>233</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>286</v>
       </c>
       <c r="D17" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21">
       <c r="A18" s="18"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="51"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="47" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="42">
       <c r="A19" s="18"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="8"/>
+      <c r="B19" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="42">
       <c r="A20" s="18"/>
       <c r="B20" s="35" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C20" s="51"/>
       <c r="D20" s="47" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="42">
       <c r="A21" s="18"/>
-      <c r="B21" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="63">
+      <c r="B21" s="36"/>
+      <c r="C21" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" ht="21">
       <c r="A22" s="18"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>170</v>
+      <c r="B22" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="49" t="s">
+        <v>225</v>
       </c>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" ht="21">
+    <row r="23" spans="1:5" ht="42">
       <c r="A23" s="18"/>
-      <c r="B23" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="50" t="s">
-        <v>229</v>
+      <c r="B23" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>226</v>
       </c>
       <c r="E23" s="40"/>
     </row>
-    <row r="24" spans="1:5" ht="63">
+    <row r="24" spans="1:5" ht="42">
       <c r="A24" s="18"/>
-      <c r="B24" s="34" t="s">
-        <v>312</v>
-      </c>
+      <c r="B24" s="35"/>
       <c r="C24" s="45" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E24" s="40"/>
     </row>
-    <row r="25" spans="1:5" ht="63">
+    <row r="25" spans="1:5" ht="21">
       <c r="A25" s="18"/>
       <c r="B25" s="35"/>
-      <c r="C25" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>243</v>
+      <c r="C25" s="45"/>
+      <c r="D25" s="51" t="s">
+        <v>227</v>
       </c>
       <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5" ht="21">
       <c r="A26" s="18"/>
-      <c r="B26" s="35"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="45"/>
       <c r="D26" s="52" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E26" s="40"/>
     </row>
-    <row r="27" spans="1:5" ht="21">
+    <row r="27" spans="1:5" ht="42">
       <c r="A27" s="18"/>
-      <c r="B27" s="36"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="45"/>
-      <c r="D27" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="E27" s="40"/>
+      <c r="D27" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="42">
       <c r="A28" s="18"/>
       <c r="B28" s="38"/>
       <c r="C28" s="45"/>
-      <c r="D28" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>318</v>
+      <c r="D28" s="53"/>
+      <c r="E28" s="55" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="42">
       <c r="A29" s="18"/>
-      <c r="B29" s="38"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="45"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="62" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="42">
+      <c r="D29" s="54"/>
+      <c r="E29" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21">
       <c r="A30" s="18"/>
       <c r="B30" s="34"/>
       <c r="C30" s="45"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="12" t="s">
-        <v>314</v>
-      </c>
+      <c r="D30" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5" ht="21">
-      <c r="A31" s="18"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="E31" s="40"/>
-    </row>
-    <row r="32" spans="1:5" ht="21">
-      <c r="A32" s="19"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="E32" s="41"/>
-    </row>
-    <row r="33" spans="1:13" ht="21">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="21">
-      <c r="A34" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="40"/>
-      <c r="G34" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="21">
-      <c r="A35" s="18"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="40"/>
-    </row>
-    <row r="36" spans="1:13" ht="21">
-      <c r="A36" s="18"/>
-      <c r="B36" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="21">
-      <c r="A37" s="18"/>
-      <c r="B37" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="21">
-      <c r="A38" s="18"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="18"/>
-      <c r="B39" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="21">
-      <c r="A40" s="18"/>
-      <c r="B40" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="21">
-      <c r="A41" s="18"/>
-      <c r="B41" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="21">
-      <c r="A42" s="18"/>
-      <c r="B42" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="C42" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="40"/>
-    </row>
-    <row r="43" spans="1:13" ht="21">
-      <c r="A43" s="18"/>
-      <c r="B43" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="E43" s="40"/>
-    </row>
-    <row r="44" spans="1:13" ht="21">
-      <c r="A44" s="18"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="E44" s="40"/>
-    </row>
-    <row r="45" spans="1:13" ht="42">
-      <c r="A45" s="18"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53" t="s">
-        <v>321</v>
-      </c>
-      <c r="E45" s="40"/>
-    </row>
-    <row r="46" spans="1:13" ht="21">
-      <c r="A46" s="18"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" s="40"/>
-    </row>
-    <row r="47" spans="1:13" ht="21">
-      <c r="A47" s="18"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="E47" s="40"/>
-    </row>
-    <row r="48" spans="1:13" ht="21">
-      <c r="A48" s="18"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="E48" s="40"/>
-    </row>
-    <row r="49" spans="1:5" ht="21">
-      <c r="A49" s="18"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="E49" s="40"/>
-    </row>
-    <row r="50" spans="1:5" ht="21">
-      <c r="A50" s="19"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="E50" s="41"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="16" t="s">
+      <c r="E31" s="41"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="16" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="16" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="16" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="16" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="16" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B42" s="16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="16" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B43" s="16" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N50" xr:uid="{1B883C12-05CA-B042-A3CA-1E7E62FA15B6}"/>
+  <autoFilter ref="A3:G31" xr:uid="{1B883C12-05CA-B042-A3CA-1E7E62FA15B6}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
